--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,20 +434,25 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>vacationdays</t>
+          <t>vacation_max</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>vacation_remaining</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>password</t>
         </is>
@@ -467,17 +472,20 @@
       <c r="C2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>employee</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>jbausinger</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -497,17 +505,20 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>employee</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>dburris</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -527,17 +538,20 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>employee</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>cclassen</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -557,17 +571,20 @@
       <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>employee</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>jdenton</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -587,17 +604,20 @@
       <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>employee</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>ghayes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -617,17 +637,20 @@
       <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>employee</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>mmato</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -647,17 +670,20 @@
       <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>employee</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>mmatojr</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -677,17 +703,20 @@
       <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>employee</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>kray</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -707,17 +736,20 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>mfrank</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>a</t>
         </is>
@@ -735,21 +767,24 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>dwood</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>a</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>

--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>

--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>

--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>

--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>

--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>

--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -718,7 +718,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>8414</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>employee</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
